--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C29577-7B49-194A-A14D-14116ABEC5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888B3B94-68C3-144F-AC46-A08D005D9FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31980" yWindow="-460" windowWidth="28040" windowHeight="17360" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-32540" yWindow="3020" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Description</t>
   </si>
@@ -794,13 +794,195 @@
       </rPr>
       <t xml:space="preserve"> guessed intensity = .2 for other datasets</t>
     </r>
+  </si>
+  <si>
+    <t>0.6373 ± 0.00796</t>
+  </si>
+  <si>
+    <t>0.6336 ± 0.00975</t>
+  </si>
+  <si>
+    <t>0.6411 ± 0.00607</t>
+  </si>
+  <si>
+    <t>0.64 ± 0.00748</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AtomPairs(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <t>0.6298 ± 0.00873</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Morgan(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <t>0.6349 ± 0.01051</t>
+  </si>
+  <si>
+    <t>0.6349 ± 0.00573</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Morgan(100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <t>I will report better ones for one fingerprint (since it's two stacked, if it is close to 0.63 we'll report here)</t>
+  </si>
+  <si>
+    <t>0.6323 ± 0.00797</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TopologicalTorsions(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <t>0.6342 ± 0.01041</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -851,6 +1033,16 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -922,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -930,44 +1122,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1291,24 +1480,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="59.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="9"/>
-    <col min="9" max="10" width="10.83203125" style="10"/>
-    <col min="11" max="11" width="38.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="10" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="38.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,44 +1507,44 @@
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1370,13 +1559,12 @@
       <c r="D3" s="5">
         <v>0.1239</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1391,11 +1579,10 @@
       <c r="D4" s="5">
         <v>0.1237</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1410,16 +1597,15 @@
       <c r="D5" s="5">
         <v>0.1216</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1434,11 +1620,10 @@
       <c r="D6" s="5">
         <v>0.1241</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1481,19 +1666,18 @@
       <c r="D9" s="5">
         <v>0.1217</v>
       </c>
-      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.12239999999999999</v>
       </c>
     </row>
@@ -1501,13 +1685,13 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.1231</v>
       </c>
     </row>
@@ -1515,10 +1699,10 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="5">
@@ -1529,13 +1713,13 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>0.1239</v>
       </c>
     </row>
@@ -1543,10 +1727,10 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="5">
@@ -1557,13 +1741,13 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.1242</v>
       </c>
     </row>
@@ -1571,70 +1755,157 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.12189999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="E17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.12180000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>0.1206</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.1203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.12089999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.1217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.1212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.1227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.12130000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084C81AD-00DF-CD4D-A9E7-98260289915E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EE47E-BDCD-1B4B-BF94-4E46AD718D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0654AF5-C4F2-BF43-A12B-07C0B36AFD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32540" yWindow="3020" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
+    <sheet name="params" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>Description</t>
   </si>
@@ -127,13 +128,7 @@
     <t>0.6298 ± 0.00873</t>
   </si>
   <si>
-    <t>0.6349 ± 0.01051</t>
-  </si>
-  <si>
     <t>0.6349 ± 0.00573</t>
-  </si>
-  <si>
-    <t>I will report better ones for one fingerprint (since it's two stacked, if it is close to 0.63 we'll report here)</t>
   </si>
   <si>
     <t>0.6323 ± 0.00797</t>
@@ -335,7 +330,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, standard transform, scaled by Ravia, summed, guessed intensity = .6 for other datasets</t>
+      <t>, log normal transform, averaging to get mixture; stacked with standard average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> full Mordred</t>
     </r>
   </si>
   <si>
@@ -357,7 +362,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, standard transform, scaled by Ravia, summed, guessed intensity = 0.25 for other datasets</t>
+      <t>, log normal transform, averaging to get mixture; stacked with standard average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reduced Mordred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(50)</t>
     </r>
   </si>
   <si>
@@ -379,7 +414,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, standard transform, scaled by Ravia, summed, guessed intensity = 0.65 for other datasets</t>
+      <t>, log normal transform, averaging to get mixture; stacked with standard average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reduced Mordred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(96)</t>
     </r>
   </si>
   <si>
@@ -401,8 +466,224 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, standard transform, scaled by Ravia, summed, guessed intensity = 0.2 for other datasets; augment Ravia </t>
-    </r>
+      <t>, log normal transform, averaging to get mixture; stacked with standard average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reduced Mordred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(162)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AtomPairs(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Morgan(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Morgan(100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TopologicalTorsions(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>0.6356 ± 0.00771</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 400, 'min_samples_split': 5, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 500, 'min_samples_split': 5, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>0.6309 ± 0.00534</t>
   </si>
   <si>
     <r>
@@ -423,7 +704,282 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, log normal transform, averaging to get mixture; stacked with standard average</t>
+      <t xml:space="preserve">, log normal transform, stacked with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>selected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Dragon (31)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>, standard averaged</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deepnose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, log normal transform, stacked with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>selected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Mordred (70)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>, standard averaged</t>
+    </r>
+  </si>
+  <si>
+    <t>0.6354 ± 0.00720</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deepnose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, standard transform, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>scaled by Ravia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed, guessed intensity = .6 for other datasets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deepnose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, standard transform, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>scaled by Ravia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed, guessed intensity = 0.25 for other datasets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deepnose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, standard transform, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>scaled by Ravia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed, guessed intensity = 0.65 for other datasets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deepnose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, standard transform,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> scaled by Ravia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, summed, guessed intensity = 0.2 for other datasets; augment Ravia </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deepnose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, log normal transform, stacked with standard transform</t>
     </r>
     <r>
       <rPr>
@@ -433,7 +989,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> full Mordred</t>
+      <t xml:space="preserve"> reduced Mordred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(50), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>scaled by Ravia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed;  guessed intensity = .2 for other datasets</t>
     </r>
   </si>
   <si>
@@ -455,7 +1049,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, log normal transform, averaging to get mixture; stacked with standard average</t>
+      <t>, log normal transform, stacked with standard transform</t>
     </r>
     <r>
       <rPr>
@@ -485,7 +1079,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(50)</t>
+      <t>(50),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> scaled by Ravia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed;  guessed intensity = .2 for other datasets</t>
     </r>
   </si>
   <si>
@@ -507,7 +1119,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, log normal transform, averaging to get mixture; stacked with standard average</t>
+      <t>, log normal transform, stacked with standard transform</t>
     </r>
     <r>
       <rPr>
@@ -537,7 +1149,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(96)</t>
+      <t xml:space="preserve">(96), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>scaled by Ravia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed;  guessed intensity = .2 for other datasets</t>
     </r>
   </si>
   <si>
@@ -559,7 +1189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, log normal transform, averaging to get mixture; stacked with standard average</t>
+      <t>, log normal transform, stacked with standard transform</t>
     </r>
     <r>
       <rPr>
@@ -589,194 +1219,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(162)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Deepnose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, log normal transform, stacked with standard transform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reduced Mordred</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(50), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scaled by Ravia, summed;  guessed intensity = .2 for other datasets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Deepnose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, log normal transform, stacked with standard transform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reduced Mordred</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(96), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scaled by Ravia, summed;  guessed intensity = .2 for other datasets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Deepnose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, log normal transform, stacked with standard transform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reduced Mordred</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">(162), </t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scaled by Ravia, summed;  guessed intensity = .2 for other datasets</t>
-    </r>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>scaled by Ravia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed;  guessed intensity = .2 for other datasets</t>
+    </r>
+  </si>
+  <si>
+    <t>{'n_estimators': 500, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>For stacked features, I will report mostly &gt; .63</t>
   </si>
   <si>
     <r>
@@ -803,11 +1271,29 @@
       <rPr>
         <sz val="14"/>
         <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AtomPairs(50)</t>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Morgan(50) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TopologicalTorsions(50)</t>
     </r>
     <r>
       <rPr>
@@ -821,137 +1307,53 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leffingwell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Morgan(50)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, summed to get mixture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leffingwell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Morgan(100)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, summed to get mixture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leffingwell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TopologicalTorsions(50)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, summed to get mixture</t>
-    </r>
+    <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0, 'n_estimators': 300, 'min_child_weight': 3, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 1.0}</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>0.6341 ± 0.01101</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 400, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': False}</t>
+  </si>
+  <si>
+    <t>0.6344 ± 0.00898</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 300, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_features': 0.5, 'max_depth': 30, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 300, 'min_samples_split': 10, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 0, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 400, 'min_samples_split': 5, 'min_samples_leaf': 1, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': False}</t>
+  </si>
+  <si>
+    <t>{'subsample': 0.7, 'n_estimators': 400, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 250, 'min_samples_split': 10, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>{'subsample': 0.5, 'n_estimators': 300, 'max_depth': 7, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 500, 'min_samples_split': 5, 'max_features': 'sqrt', 'max_depth': 10, 'bootstrap': True}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -990,13 +1392,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="4"/>
       <name val="Calibri"/>
@@ -1017,8 +1412,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,6 +1477,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1086,13 +1514,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1106,33 +1546,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1453,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1467,41 +1901,46 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="15"/>
-    <col min="9" max="10" width="10.83203125" style="16"/>
-    <col min="11" max="11" width="38.6640625" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="10"/>
+    <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="12" width="10.83203125" style="4"/>
+    <col min="13" max="13" width="38.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1514,18 +1953,24 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="15"/>
+      <c r="H2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1533,19 +1978,19 @@
       <c r="D3" s="1">
         <v>0.1239</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1553,17 +1998,17 @@
       <c r="D4" s="1">
         <v>0.1237</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1574,19 +2019,19 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1594,17 +2039,19 @@
       <c r="D6" s="1">
         <v>0.1241</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="J6" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1613,12 +2060,12 @@
         <v>0.1242</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -1627,12 +2074,12 @@
         <v>0.1239</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -1641,12 +2088,12 @@
         <v>0.1217</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1655,12 +2102,12 @@
         <v>0.12239999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -1668,13 +2115,19 @@
       <c r="D11" s="1">
         <v>0.1231</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
@@ -1683,12 +2136,12 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -1697,12 +2150,12 @@
         <v>0.1239</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -1711,12 +2164,12 @@
         <v>0.12230000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -1725,12 +2178,12 @@
         <v>0.1242</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -1739,12 +2192,12 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
@@ -1753,12 +2206,12 @@
         <v>0.12180000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
@@ -1767,12 +2220,12 @@
         <v>0.1206</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>20</v>
@@ -1781,12 +2234,12 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -1795,12 +2248,12 @@
         <v>0.1203</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>27</v>
@@ -1809,12 +2262,12 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -1823,77 +2276,396 @@
         <v>0.1217</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1">
         <v>0.121</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1">
         <v>0.1212</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1">
         <v>0.1227</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1">
         <v>0.12130000000000001</v>
       </c>
     </row>
+    <row r="27" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.12089999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.1231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.1235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.1232</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H5:K5"/>
+  <mergeCells count="10">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J5:M5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="J1:M2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H3:K4"/>
+    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4FF55-9D81-884D-8714-C4C1AFC24CA9}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0654AF5-C4F2-BF43-A12B-07C0B36AFD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB27961-1FCB-084E-9877-2E57434E620A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32540" yWindow="3020" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2116,7 +2116,7 @@
         <v>0.1231</v>
       </c>
       <c r="H11" s="1">
-        <v>0.70899999999999996</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="I11" s="1">
         <v>0.121</v>

--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB27961-1FCB-084E-9877-2E57434E620A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D750F53-6505-CE4B-A289-36EC1E566C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32540" yWindow="3020" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
@@ -1514,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1528,11 +1528,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1552,20 +1562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1889,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1910,37 +1907,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1953,17 +1950,17 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1978,12 +1975,12 @@
       <c r="D3" s="1">
         <v>0.1239</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1998,10 +1995,10 @@
       <c r="D4" s="1">
         <v>0.1237</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2019,12 +2016,12 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2039,12 +2036,12 @@
       <c r="D6" s="1">
         <v>0.1241</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2135,6 +2132,12 @@
       <c r="F12" s="1">
         <v>0.122</v>
       </c>
+      <c r="H12" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.11799999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2149,6 +2152,12 @@
       <c r="D13" s="1">
         <v>0.1239</v>
       </c>
+      <c r="H13" s="1">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.123</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2163,6 +2172,12 @@
       <c r="F14" s="1">
         <v>0.12230000000000001</v>
       </c>
+      <c r="H14" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.121</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2177,6 +2192,12 @@
       <c r="D15" s="1">
         <v>0.1242</v>
       </c>
+      <c r="H15" s="1">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2390,16 +2411,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2411,83 +2432,83 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2498,131 +2519,131 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2633,18 +2654,18 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2655,7 +2676,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" t="s">

--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D750F53-6505-CE4B-A289-36EC1E566C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF81A59-B6AD-AE44-96E8-2A64A306E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32540" yWindow="3020" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-21640" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -674,16 +674,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>0.6356 ± 0.00771</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 400, 'min_samples_split': 5, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
-  </si>
-  <si>
     <t>{'n_estimators': 500, 'min_samples_split': 5, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
-  </si>
-  <si>
-    <t>0.6309 ± 0.00534</t>
   </si>
   <si>
     <r>
@@ -798,9 +789,6 @@
     </r>
   </si>
   <si>
-    <t>0.6354 ± 0.00720</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1241,9 +1229,6 @@
     </r>
   </si>
   <si>
-    <t>{'n_estimators': 500, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
-  </si>
-  <si>
     <t>For stacked features, I will report mostly &gt; .63</t>
   </si>
   <si>
@@ -1347,13 +1332,102 @@
   </si>
   <si>
     <t>{'n_estimators': 500, 'min_samples_split': 5, 'max_features': 'sqrt', 'max_depth': 10, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>Bushdid    0.118434
+Ravia      0.098279
+Snitz 1    0.066827
+Snitz 2    0.077048</t>
+  </si>
+  <si>
+    <t>{'subsample': 0.5, 'n_estimators': 250, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
+  </si>
+  <si>
+    <t>0.6323 ± 0.00407</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deepnose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, log normal transform, stacked with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>selected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Normlaized </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Mordred (77)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>, standard averaged</t>
+    </r>
+  </si>
+  <si>
+    <t>0.6371 ± 0.00757</t>
+  </si>
+  <si>
+    <t>0.6513 ± 0.00747</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 500, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>0.6453 ± 0.01029</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 250, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>0.6433 ± 0.00828</t>
+  </si>
+  <si>
+    <t>0.6376 ± 0.00964</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1439,6 +1513,13 @@
       <color theme="7"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1484,7 +1565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1510,11 +1591,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1530,6 +1631,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1550,21 +1666,23 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1884,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1907,37 +2025,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1950,17 +2068,17 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1975,12 +2093,12 @@
       <c r="D3" s="1">
         <v>0.1239</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1995,10 +2113,10 @@
       <c r="D4" s="1">
         <v>0.1237</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2016,19 +2134,19 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2036,19 +2154,19 @@
       <c r="D6" s="1">
         <v>0.1241</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="J6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -2062,7 +2180,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -2076,7 +2194,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -2085,342 +2203,486 @@
         <v>0.1217</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="40" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:13" s="21" customFormat="1" ht="80" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>8.1</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" s="24" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.12239999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="40" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.1231</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.121</v>
-      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.122</v>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.1231</v>
       </c>
       <c r="H12" s="1">
-        <v>0.70099999999999996</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>0.11799999999999999</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.1239</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.122</v>
       </c>
       <c r="H13" s="1">
-        <v>0.70799999999999996</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>0.123</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.12230000000000001</v>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.1239</v>
       </c>
       <c r="H14" s="1">
-        <v>0.69099999999999995</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>0.121</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>0.1242</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>0.68899999999999995</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="1">
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="17" spans="1:13" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="18">
         <v>0.12189999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>0.12180000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>0.1206</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>0.1203</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:13" s="21" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="18">
         <v>0.1217</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0.123</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>0.1212</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="H25" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>0.1227</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="H26" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>0.12130000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="H27" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="1">
         <v>0.12089999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="H28" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.1231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.1227</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.1235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.1212</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.1232</v>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.1197</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.1222</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.1208</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.11799999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="J1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="J3:M4"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2429,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4FF55-9D81-884D-8714-C4C1AFC24CA9}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2494,7 +2756,12 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
@@ -2504,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2512,10 +2779,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2526,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,10 +2801,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2548,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2595,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2606,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2614,10 +2881,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2628,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2639,7 +2906,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2647,10 +2914,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2661,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2672,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2680,13 +2947,36 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>62</v>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF81A59-B6AD-AE44-96E8-2A64A306E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828018C9-3237-AF45-938A-839082176A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21640" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-34040" yWindow="820" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>Description</t>
   </si>
@@ -1421,6 +1421,150 @@
   </si>
   <si>
     <t>0.6376 ± 0.00964</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deepnose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, log normal transform, stacked with  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>selected Dragon (31)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Mordred (77)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>, standard averaged</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deepnose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, log normal transform, stacked with  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>selected Dragon (31)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Mordred (77)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>, standard averaged</t>
+    </r>
+  </si>
+  <si>
+    <t>0.6500 ± 0.00654</t>
+  </si>
+  <si>
+    <t>0.6385 ± 0.00491</t>
+  </si>
+  <si>
+    <t>{'subsample': 0.7, 'n_estimators': 300, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 500, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1633,21 +1777,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1666,23 +1805,21 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2002,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2025,37 +2162,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2068,17 +2205,17 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2093,12 +2230,12 @@
       <c r="D3" s="1">
         <v>0.1239</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2113,10 +2250,10 @@
       <c r="D4" s="1">
         <v>0.1237</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2134,12 +2271,12 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2154,12 +2291,12 @@
       <c r="D6" s="1">
         <v>0.1241</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2203,53 +2340,44 @@
         <v>0.1217</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="21" customFormat="1" ht="80" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+    <row r="10" spans="1:13" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>8.1</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="7">
         <v>0.12239999999999999</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" s="24" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="1">
         <v>0.12280000000000001</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2351,28 +2479,28 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+    <row r="17" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="7">
         <v>0.12189999999999999</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2444,32 +2572,32 @@
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="21" customFormat="1" ht="40" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+    <row r="23" spans="1:13" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="7">
         <v>0.1217</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
         <v>0.67</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="7">
         <v>0.123</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -2671,18 +2799,58 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
+    <row r="34" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.1211</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2691,10 +2859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4FF55-9D81-884D-8714-C4C1AFC24CA9}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2975,6 +3143,28 @@
         <v>70</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828018C9-3237-AF45-938A-839082176A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8AEC9F-2BD8-A042-B04C-FF63BB099347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34040" yWindow="820" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-34040" yWindow="820" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -1787,6 +1787,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1803,21 +1818,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2162,37 +2162,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2205,17 +2205,17 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2230,12 +2230,12 @@
       <c r="D3" s="1">
         <v>0.1239</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2250,10 +2250,10 @@
       <c r="D4" s="1">
         <v>0.1237</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2271,12 +2271,12 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2291,12 +2291,12 @@
       <c r="D6" s="1">
         <v>0.1241</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2841,16 +2841,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="J1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="J3:M4"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4FF55-9D81-884D-8714-C4C1AFC24CA9}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8AEC9F-2BD8-A042-B04C-FF63BB099347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D084DB4-AA37-8444-81B7-2B29176B564E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34040" yWindow="820" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-34040" yWindow="820" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -1787,21 +1787,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1818,6 +1803,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2162,37 +2162,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2205,17 +2205,17 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2230,12 +2230,12 @@
       <c r="D3" s="1">
         <v>0.1239</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2250,10 +2250,10 @@
       <c r="D4" s="1">
         <v>0.1237</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2271,12 +2271,12 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2291,12 +2291,12 @@
       <c r="D6" s="1">
         <v>0.1241</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2841,16 +2841,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4FF55-9D81-884D-8714-C4C1AFC24CA9}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADD7D90-E763-F84A-AB5B-21D819E023C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B8827E-AD74-594C-981D-C786AF6FF487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34040" yWindow="820" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-21640" yWindow="880" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -1832,21 +1832,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1863,6 +1848,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2186,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2207,37 +2207,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2250,17 +2250,17 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2275,12 +2275,12 @@
       <c r="D3" s="1">
         <v>0.1239</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2295,10 +2295,10 @@
       <c r="D4" s="1">
         <v>0.1237</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2316,12 +2316,12 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2336,12 +2336,12 @@
       <c r="D6" s="1">
         <v>0.1241</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2920,16 +2920,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2940,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4FF55-9D81-884D-8714-C4C1AFC24CA9}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>

--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B8827E-AD74-594C-981D-C786AF6FF487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDCA1AC-9D53-1F46-AF9D-4FD79D83BEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21640" yWindow="880" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-28800" yWindow="4520" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
     <sheet name="params" sheetId="2" r:id="rId2"/>
+    <sheet name="meta" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
   <si>
     <t>Description</t>
   </si>
@@ -1605,13 +1606,61 @@
   </si>
   <si>
     <t>XGB</t>
+  </si>
+  <si>
+    <t>dense\sparse</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1202, Correlation: 0.6879</t>
+  </si>
+  <si>
+    <t>RF - RMSE: 0.1157, Correlation: 0.7131</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1195, Correlation: 0.6967</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1200, Correlation: 0.6913</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1199, Correlation: 0.6906</t>
+  </si>
+  <si>
+    <t>GB - RMSE: 0.1135, Correlation: 0.7314</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1194, Correlation: 0.6992</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1198, Correlation: 0.6935</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1200, Correlation: 0.6915</t>
+  </si>
+  <si>
+    <t>RF - RMSE: 0.1137, Correlation: 0.7323</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1195, Correlation: 0.6995</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1199, Correlation: 0.6944</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1216, Correlation: 0.6767</t>
+  </si>
+  <si>
+    <t>KNN - RMSE: 0.1190, Correlation: 0.7005</t>
+  </si>
+  <si>
+    <t>KNN - RMSE: 0.1199, Correlation: 0.6910</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1709,6 +1758,13 @@
       <color rgb="FFFFC000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1804,7 +1860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1832,6 +1888,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1850,21 +1921,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2186,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2207,37 +2264,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2250,17 +2307,17 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2275,12 +2332,12 @@
       <c r="D3" s="1">
         <v>0.1239</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2295,10 +2352,10 @@
       <c r="D4" s="1">
         <v>0.1237</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2316,12 +2373,12 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2336,12 +2393,12 @@
       <c r="D6" s="1">
         <v>0.1241</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2920,16 +2977,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="J1:M2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="J3:M4"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2940,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4FF55-9D81-884D-8714-C4C1AFC24CA9}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3270,4 +3327,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E55818D-725D-2D47-99EB-3D32A9E752B0}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>21</v>
+      </c>
+      <c r="D1">
+        <v>24</v>
+      </c>
+      <c r="E1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/performance_summary.xlsx
+++ b/performance_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDCA1AC-9D53-1F46-AF9D-4FD79D83BEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C823C-078D-A749-8CC0-76C3549560D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4520" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-28800" yWindow="4520" windowWidth="28800" windowHeight="15860" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -2243,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2998,7 +2998,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3333,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E55818D-725D-2D47-99EB-3D32A9E752B0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
